--- a/Table/Table_xls/c宠物相关/c宠物升级经验表.xlsx
+++ b/Table/Table_xls/c宠物相关/c宠物升级经验表.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="16155" windowHeight="10230"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>当前等级</t>
   </si>
@@ -22,157 +22,157 @@
     <t>下级经验</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>50</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
   </si>
   <si>
     <t>51</t>
@@ -509,21 +509,171 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,11 +682,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -544,28 +875,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -853,16 +1463,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -875,7 +1486,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -883,7 +1494,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>70</v>
@@ -891,7 +1502,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>220</v>
@@ -899,7 +1510,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>470</v>
@@ -907,7 +1518,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>820</v>
@@ -915,7 +1526,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1270</v>
@@ -923,7 +1534,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1820</v>
@@ -931,7 +1542,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>2470</v>
@@ -939,7 +1550,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3220</v>
@@ -947,7 +1558,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>4070</v>
@@ -955,7 +1566,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>5020</v>
@@ -963,7 +1574,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>6070</v>
@@ -971,7 +1582,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>7220</v>
@@ -979,7 +1590,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>8470</v>
@@ -987,7 +1598,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>9820</v>
@@ -995,7 +1606,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>11270</v>
@@ -1003,7 +1614,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>12820</v>
@@ -1011,7 +1622,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>14470</v>
@@ -1019,7 +1630,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>16220</v>
@@ -1027,7 +1638,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>18070</v>
@@ -1035,7 +1646,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>20020</v>
@@ -1043,7 +1654,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>22070</v>
@@ -1051,7 +1662,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>24220</v>
@@ -1059,7 +1670,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>26470</v>
@@ -1067,7 +1678,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>28820</v>
@@ -1075,7 +1686,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>31270</v>
@@ -1083,7 +1694,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>33820</v>
@@ -1091,7 +1702,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>36470</v>
@@ -1099,7 +1710,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>39220</v>
@@ -1107,7 +1718,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>42070</v>
@@ -1115,7 +1726,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>45020</v>
@@ -1123,7 +1734,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>48070</v>
@@ -1131,7 +1742,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>51220</v>
@@ -1139,7 +1750,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>54470</v>
@@ -1147,7 +1758,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>57820</v>
@@ -1155,7 +1766,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>61270</v>
@@ -1163,7 +1774,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>64820</v>
@@ -1171,7 +1782,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>68470</v>
@@ -1179,7 +1790,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>72220</v>
@@ -1187,7 +1798,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>76070</v>
@@ -1195,7 +1806,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>80020</v>
@@ -1203,7 +1814,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>84070</v>
@@ -1211,7 +1822,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>88220</v>
@@ -1219,7 +1830,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>92470</v>
@@ -1227,7 +1838,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>96820</v>
@@ -1235,7 +1846,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>101270</v>
@@ -1243,7 +1854,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>105820</v>
@@ -1251,7 +1862,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>110470</v>
@@ -1259,7 +1870,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>115220</v>
@@ -1267,7 +1878,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>120070</v>
@@ -1275,7 +1886,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>125020</v>
@@ -2014,7 +2625,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>1008220</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2022,7 +2633,8 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>1022470</v>
+        <f t="shared" ref="B145:B161" si="0">B144+500000</f>
+        <v>1500000</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2030,7 +2642,8 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>1036820</v>
+        <f t="shared" si="0"/>
+        <v>2000000</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2038,7 +2651,8 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>1051270</v>
+        <f t="shared" si="0"/>
+        <v>2500000</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2046,7 +2660,8 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>1065820</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2054,7 +2669,8 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>1080470</v>
+        <f t="shared" si="0"/>
+        <v>3500000</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2062,7 +2678,8 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>1095220</v>
+        <f t="shared" si="0"/>
+        <v>4000000</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2070,7 +2687,8 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>1110070</v>
+        <f t="shared" si="0"/>
+        <v>4500000</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2078,91 +2696,100 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>1125020</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="14.25">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>153</v>
       </c>
-      <c r="B153" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="14.25">
+      <c r="B153">
+        <f t="shared" si="0"/>
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>154</v>
       </c>
-      <c r="B154" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="14.25">
+      <c r="B154">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="14.25">
+      <c r="B155">
+        <f t="shared" si="0"/>
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="14.25">
+      <c r="B156">
+        <f t="shared" si="0"/>
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="14.25">
+      <c r="B157">
+        <f t="shared" si="0"/>
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="14.25">
+      <c r="B158">
+        <f t="shared" si="0"/>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>159</v>
       </c>
-      <c r="B159" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="14.25">
+      <c r="B159">
+        <f t="shared" si="0"/>
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="14.25">
+      <c r="B160">
+        <f t="shared" si="0"/>
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>161</v>
       </c>
-      <c r="B161" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="14.25">
+      <c r="B161">
+        <f t="shared" si="0"/>
+        <v>9500000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="1">
-        <v>1500000</v>
+      <c r="B162">
+        <v>99999999</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
